--- a/biology/Médecine/1137_en_santé_et_médecine/1137_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1137_en_santé_et_médecine/1137_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1137_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1137_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1137 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1137_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1137_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Premier témoignage d'un enseignement de la médecine à Montpellier[1].
-Le roi de France Louis VI « [fait] par testament un legs « aux deux mille léproseries de [son] royaume », mais le nombre de deux mille paraît trop rond pour inspirer confiance, et nous ne savons pas les territoires compris dans le terme « royaume[2] » ».
-L'hôpital della Scaletta est attesté à Imola en Italie, sur la Via Aemilia, entre Bologne et Faenza[3].
-Le premier hôpital connu des Pouilles est mentionné à Spinazzola, en Haute Murgia, dans une charte de donation à l'ordre des Templiers par Achard II, comte normand de Lecce[4].
-Fondation de l'église hôpital Saint-Michel d'Entraygues par Lambert, évêque d'Angoulême, « pour y recevoir les pauvres du Christ », voyageurs et pèlerins[5].
-1132-1137 : l'évêque Henri de Blois fonde l'hôpital Sainte-Croix (Hospital of St. Cross (en)) de Winchester, dans le Hampshire, en Angleterre[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Premier témoignage d'un enseignement de la médecine à Montpellier.
+Le roi de France Louis VI « [fait] par testament un legs « aux deux mille léproseries de [son] royaume », mais le nombre de deux mille paraît trop rond pour inspirer confiance, et nous ne savons pas les territoires compris dans le terme « royaume » ».
+L'hôpital della Scaletta est attesté à Imola en Italie, sur la Via Aemilia, entre Bologne et Faenza.
+Le premier hôpital connu des Pouilles est mentionné à Spinazzola, en Haute Murgia, dans une charte de donation à l'ordre des Templiers par Achard II, comte normand de Lecce.
+Fondation de l'église hôpital Saint-Michel d'Entraygues par Lambert, évêque d'Angoulême, « pour y recevoir les pauvres du Christ », voyageurs et pèlerins.
+1132-1137 : l'évêque Henri de Blois fonde l'hôpital Sainte-Croix (Hospital of St. Cross (en)) de Winchester, dans le Hampshire, en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1137_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1137_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Odon, médecin, témoin dans un acte de donation du roi Louis VI à la fondation de l'abbaye de Beaupré en Beauvaisis[7].
-1137-1138 : fl. Azzon, maître en médecine, cité dans des actes concernant un certain Mathieu, de Péronne[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Odon, médecin, témoin dans un acte de donation du roi Louis VI à la fondation de l'abbaye de Beaupré en Beauvaisis.
+1137-1138 : fl. Azzon, maître en médecine, cité dans des actes concernant un certain Mathieu, de Péronne.</t>
         </is>
       </c>
     </row>
